--- a/server/public/templates/reports_2023-10-25.xlsx
+++ b/server/public/templates/reports_2023-10-25.xlsx
@@ -11,75 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Full Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Fullname</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Contact No.</t>
-  </si>
-  <si>
-    <t>civilStatus</t>
-  </si>
-  <si>
-    <t>spouseName</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>businessMonthlyIncome</t>
-  </si>
-  <si>
-    <t>buyerSourceOfIncome</t>
-  </si>
-  <si>
-    <t>typeOfEmployment</t>
-  </si>
-  <si>
-    <t>employerAddress</t>
-  </si>
-  <si>
-    <t>grossSalary</t>
-  </si>
-  <si>
-    <t>businessName</t>
-  </si>
-  <si>
-    <t>businessAddress</t>
-  </si>
-  <si>
-    <t>monthlyGrossIncome</t>
+    <t>ContactNo</t>
   </si>
   <si>
     <t>Karl Borromeo</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>09123456789</t>
   </si>
   <si>
     <t>Mary Grace Galllardo</t>
   </si>
   <si>
-    <t>SINGLE</t>
-  </si>
-  <si>
     <t>Kryzz Andig</t>
-  </si>
-  <si>
-    <t>213</t>
   </si>
   <si>
     <t>Total:</t>
@@ -459,18 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="17" width="25" customWidth="1"/>
+    <col min="1" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,121 +427,46 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>3200</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>16200</v>
+      <c r="B5">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
